--- a/words_EX.xlsx
+++ b/words_EX.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B269"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A7" sqref="A1:B1048576"/>
@@ -3666,26 +3666,134 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
+      <c r="A268" s="0" t="inlineStr">
         <is>
           <t>boss it</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="0" t="inlineStr">
         <is>
           <t>좌지우지하다 마음대로 하다</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
+      <c r="A269" s="0" t="inlineStr">
         <is>
           <t>act out of character</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">평소 성격과 다르게 행동하다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="inlineStr">
+        <is>
+          <t>incantation</t>
+        </is>
+      </c>
+      <c r="B270" s="0" t="inlineStr">
+        <is>
+          <t>주문</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>an old wive's tale</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>미신</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>commence</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>시작되다 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>prefactory</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>서론의</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>preliminary</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>예비의 예비행위 예선전</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>jaded</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>물린 싫증난</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>sated</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>~에 물린 질린</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>dulled</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>따분한</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wearled </t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>피곤한 싫증난 따분한</t>
         </is>
       </c>
     </row>

--- a/words_EX.xlsx
+++ b/words_EX.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C297"/>
+  <dimension ref="A1:C306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4878,6 +4878,141 @@
         <v>1</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>adversity</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>역경 고난</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>probationary</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>수습의 시험적인n</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>monetary</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>통화의</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>-wise</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>~에 관해서는 ~면에서</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>bedger</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>집</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>badger</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>집적대다 괴롭히다</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>regulars</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>단골고객들</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>moonshot</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>달탐사선발사 매우 혁신적인일</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>to the extent</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~의 정도로 </t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/words_EX.xlsx
+++ b/words_EX.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C994"/>
+  <dimension ref="A1:C1022"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
       <selection activeCell="E326" sqref="E326"/>
@@ -15339,6 +15339,426 @@
         <v>2</v>
       </c>
     </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>sizable</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>꽤 큰 상당한</t>
+        </is>
+      </c>
+      <c r="C995" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>influx</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>많은 사람자금물건이 밀어닥침</t>
+        </is>
+      </c>
+      <c r="C996" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>grueling</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>기진맥진하게하는</t>
+        </is>
+      </c>
+      <c r="C997" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>exploit</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>착취하다 이용하다</t>
+        </is>
+      </c>
+      <c r="C998" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>put sb under pressure</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>~에게 부담을 주다</t>
+        </is>
+      </c>
+      <c r="C999" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>fall apart</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>무너지다</t>
+        </is>
+      </c>
+      <c r="C1000" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ground in </t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~의 근거가 되다 </t>
+        </is>
+      </c>
+      <c r="C1001" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>monetize</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>수익을 창출하다 수익화</t>
+        </is>
+      </c>
+      <c r="C1002" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>come across</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>우연히 만나다</t>
+        </is>
+      </c>
+      <c r="C1003" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>madly</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>미친듯이 마구 대단히 극도로</t>
+        </is>
+      </c>
+      <c r="C1004" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>frantical</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>정신 나간</t>
+        </is>
+      </c>
+      <c r="C1005" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>deliriously</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t xml:space="preserve">정신이 착란하여 열광적으로 </t>
+        </is>
+      </c>
+      <c r="C1006" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>deftly</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>날랜 재빠른 능숙한 능란한</t>
+        </is>
+      </c>
+      <c r="C1007" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>nimbly</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>민첩하게 재빠르게 동작이 빠른 민첩한 영리한</t>
+        </is>
+      </c>
+      <c r="C1008" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>handiwork</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>예술적 솜씨를 발휘한 일 작품 / 나쁜 짓 소행</t>
+        </is>
+      </c>
+      <c r="C1009" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>mark up</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>가격을 올리다</t>
+        </is>
+      </c>
+      <c r="C1010" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>cater to</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>~에 구미에 맞추다</t>
+        </is>
+      </c>
+      <c r="C1011" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>total flop</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>대실패</t>
+        </is>
+      </c>
+      <c r="C1012" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>eyesore</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>눈엣가시</t>
+        </is>
+      </c>
+      <c r="C1013" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>set aside</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>치워 놓다 제쳐놓다</t>
+        </is>
+      </c>
+      <c r="C1014" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>mingle</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>사람들과 섞이다 어울리다</t>
+        </is>
+      </c>
+      <c r="C1015" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>deliberate</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>의도적인 우연이 아닌</t>
+        </is>
+      </c>
+      <c r="C1016" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>misogyne</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>여성혐오</t>
+        </is>
+      </c>
+      <c r="C1017" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>grasp</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>꽉 잡다 움켜잡다 파악하다 이해하다 꽉쥐기 이해 파악</t>
+        </is>
+      </c>
+      <c r="C1018" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>aperture</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>작은 구멍 조리개</t>
+        </is>
+      </c>
+      <c r="C1019" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>march</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>행진하다 단호히 급히 걸어가다 가두시위</t>
+        </is>
+      </c>
+      <c r="C1020" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>engulf</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>애워싸다 휩싸이다</t>
+        </is>
+      </c>
+      <c r="C1021" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>go in and out</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>왔다갔다하다 일정하지 않다</t>
+        </is>
+      </c>
+      <c r="C1022" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/words_EX.xlsx
+++ b/words_EX.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C469"/>
+  <dimension ref="A1:C529"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
       <selection activeCell="A392" sqref="A392:XFD392"/>
@@ -7464,6 +7464,906 @@
         <v>1</v>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>departed</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">세상을 떠난 고인 </t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>crest</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">산 마루 오래된 가문의 문장 심벌 정상에 이르다 최고조에 달하다 </t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>folly</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">판단력부족 어리석음 어리석은 행동 장식용 건물 </t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>consolation</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>위안 위로르 주는 사람, 것</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">breeze </t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">산들바람 미풍 </t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>intention</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>의사 의도 목적</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>prone</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">좋지 않은 일을 하기/당하기 쉬운 </t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>solace</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">위안 위로 되는 사람 것 </t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>commiseration</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>시합에서 진 사람에 대한 위로 표현</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>relief</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>안도 안심 고통 경감 구호</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>aid</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">원조 지원 특정 작업을 하는데 필요한 도움 특정 일이 수월해지도록 돕다 </t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'll be seeing you </t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">잘가 약속을 정해놓지 않고 헤어질 때 </t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">in a little bit </t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">곧 좀 있다가 </t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>sounds like a plan</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">좋아 그렇게 하자 </t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i didn't catch that </t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>듣지 못했다</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>presume</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">추정하다 간주하다 상정하다 사실을 </t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>presumption</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>주제넘음 건방짐 추정 추정</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>remit</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>소관 송금하다 면제해 주다 un remitting</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>revoke</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>취소하다 폐기처리하다</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>repeal</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">폐지하다 </t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>rescind</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">볍률 계약 결정등을 폐지 해지 철회하다 </t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>adrogate</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">폐기하다 철폐하다 </t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>genial</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상냥한 다정한 </t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>affable</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상냥한 사근사근한 붙임성 있는 </t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>cordial</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>화기애애한 다정한 코디얼</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>congenial</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">마음이 맞는 통하는 마음에 드는 성격에 맞는 ~에 알맞는 적절한 </t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>easy going</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>느굿한 태평스러운</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>approachable</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">말을 붙이기 쉬운 이해하기 쉬운 접근 가능한 </t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>sympathetic</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동정적인 동정어린 동조하는 동조적인 호의적인 공감하는 호감이 가는 </t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>well disposed</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>호의적인</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>forked</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">한쪽 끝이 두 갈래인 갈라진 </t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>fork</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">포크 쇠스랑 갈라지다 나뉘다 갈림길 등에서 오른쪽 왼쪽 길로 가다 </t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>diverging</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">갈라지다 나뉘다 갈리다 계획 예상에서 벗아나다 일탈하다 </t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>pronged</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>가닥이 진 갈래진</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>dishearten</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">낙심 낙담하게 하다 </t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>dispirit</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~의 기를 꺾다 낙담시키다 기력을 없애다 </t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>demoralize</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">사기를 꺾다 의기소침하게 만들다 </t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>dismay</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">충격 후 실망 경악 경악하게 만들다 크게 실망시키다 </t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>desolate</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>황량한 적막한 너무나 외로운 고적한 고적하게 만들다</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>crestfallen</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">풀이 죽은 의기소침한 </t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>have legs</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">성공할 가능성이 있다 </t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">완전히 망하다 </t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>win over</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">설득하다 자기편으로 끌어들이다 </t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">시행하다 이행하다 </t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>evaluate</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">평가하다 </t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>revised</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>개정된</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>maneuver</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">조종하다 </t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>alleviate</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">완화하다 </t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>triumphant</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">크게 성공한 큰 승리를 거든 득의만면한 의기양양한 </t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>executive</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경영 간부 경영진 집행의 경영의 </t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>execute</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">처형하다 실행하다 기술적인 동작을 해내다 </t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>execution</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>처형 실행 예술 제작 솜씨</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>audacious</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>대담한</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>elude</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">교묘히 피하다 이룰수가 없다 </t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>clampdown</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>기습단속</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>crackdown</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">엄중단속 강력탄압 </t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>restraint</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">규제 통제 자제 </t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>curb</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">좋지 못한 것을 억제 제한하다  제한 억제하는 것 </t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>kerb</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가장자리 돌 </t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>appear</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~인 것 같다 나타나다 보이기 시작하다 생기다 발생하다 </t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
